--- a/Marketing/arizona.roomme.xlsx
+++ b/Marketing/arizona.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/Marketing/arizona.roomme.xlsx
+++ b/Marketing/arizona.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">

--- a/Marketing/arizona.roomme.xlsx
+++ b/Marketing/arizona.roomme.xlsx
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="B527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="B562" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="B567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="B569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B576" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="B602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="B606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="B609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="B612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B614" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="B616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="B617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="B618" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B620" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B622" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="B626" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B630" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="B645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B647" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B653" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B659" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="B662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B663" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="B664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B670" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B672" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B678" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B682" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="B683" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B686" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B691" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B693" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="B696" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="B698" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B709" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B719" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="B722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="B723" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B728" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="B732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="B733" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B734" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B736" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B737" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B738" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B739" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="B740" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B741" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="B743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="B744" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B745" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="B747" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="B748" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="B749" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="B750" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="B752" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B754" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B755" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="B756" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="B757" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="B758" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B759" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="B760" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="B761" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="B762" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="B764" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="B765" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="B766" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="B769" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="B770" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="B771" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="B772" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B773" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B774" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="B776" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B777" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B778" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="B779" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B781" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="B782" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="B783" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="B784" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="B785" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B786" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B787" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="B788" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B789" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B790" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="B792" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B793" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="B794" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="B795" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="B796" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="B797" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="B798" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="B799" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="B800" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="B801" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="B802" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="B803" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="B804" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="B805" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="B806" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="B807" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="B808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="B809" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="B810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="B811" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="B812" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="B813" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="B814" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B815" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="B817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="B818" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B819" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="B820" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="B821" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="B822" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="B823" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B824" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="B825" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="B826" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="B827" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="B828" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B829" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="B830" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="B831" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="B832" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="B833" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="B834" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="B835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="B836" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="B837" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="B838" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="B839" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="B840" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="B841" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="B842" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="B843" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B844" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="B845" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="B846" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="B847" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="B848" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="B850" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -8942,7 +8942,7 @@
         </is>
       </c>
       <c r="B851" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="B852" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="B853" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="B854" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="B855" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="B856" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="B857" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="B858" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859">
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="B859" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="B860" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="B861" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="B862" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="B863" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="B864" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="B865" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="B866" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="B867" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="B868" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869">
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="B869" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="B870" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="B871" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="B872" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873">
@@ -9162,7 +9162,7 @@
         </is>
       </c>
       <c r="B873" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="B874" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B875" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="B876" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877">
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="B877" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="B878" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="B879" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="B880" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -9242,7 +9242,7 @@
         </is>
       </c>
       <c r="B881" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="B882" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="B883" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="B884" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="B885" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="B886" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B888" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="B889" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="B890" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="B891" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B892" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="B893" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B894" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="B895" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="B896" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="B897" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B898" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="B899" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="B900" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="B901" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="B902" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="B903" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="B904" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="B905" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="B906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="B907" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="B908" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="B909" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -9542,7 +9542,7 @@
         </is>
       </c>
       <c r="B911" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="B912" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -9562,7 +9562,7 @@
         </is>
       </c>
       <c r="B913" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914">
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="B914" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="B915" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="B916" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917">
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="B917" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="B918" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="B919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B920" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -9642,7 +9642,7 @@
         </is>
       </c>
       <c r="B921" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="B922" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923">
@@ -9662,7 +9662,7 @@
         </is>
       </c>
       <c r="B923" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="B924" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="B925" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="B926" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="B927" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="B928" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -9722,7 +9722,7 @@
         </is>
       </c>
       <c r="B929" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="B930" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931">
@@ -9742,7 +9742,7 @@
         </is>
       </c>
       <c r="B931" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="B932" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="B933" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="B934" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="B935" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="B936" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="B937" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="B938" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="B939" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="B940" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="B941" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="B942" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943">
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="B943" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="B944" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="B945" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="B946" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947">
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="B947" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="B948" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949">
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="B949" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B950" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951">
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="B951" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="B952" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="B953" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="B954" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="B955" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="B956" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957">
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="B957" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="B958" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959">
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="B959" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="B960" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961">
@@ -10042,7 +10042,7 @@
         </is>
       </c>
       <c r="B961" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962">

--- a/Marketing/arizona.roomme.xlsx
+++ b/Marketing/arizona.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>luv.br1ann4</t>
+          <t>melrose9969</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ryan.tsantos</t>
+          <t>sophia_chiavaroli</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>haleymcgettigan</t>
+          <t>reesefalter</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>carloscochranejr</t>
+          <t>xparker11</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>maddie.kennedy15</t>
+          <t>bellalahooood</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>j_kimb440</t>
+          <t>oliviahardwayy</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>thewrighthenry</t>
+          <t>tmarillo7</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>allieweberrr</t>
+          <t>nicolelglow</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>simoneezell</t>
+          <t>alejandroquintero7420</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>valentinaxvelickovic</t>
+          <t>giuliana.marsala</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nybolbol</t>
+          <t>mayaacopeland</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kikaa.riveraa</t>
+          <t>jakehaynie7</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lexi_liu04</t>
+          <t>eddiesalcedo_</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>masontmurphy</t>
+          <t>jociepiretra</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>richieclements_</t>
+          <t>jacobglaserr</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hannahggraman</t>
+          <t>immamoyoudown</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>gracee.dorris</t>
+          <t>reilyjuarez</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ashlynkastelic</t>
+          <t>jtmarsh_</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>julian._romano</t>
+          <t>omarhassann06</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jmrjmr26</t>
+          <t>leser02</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kaylaeldridg95913</t>
+          <t>lilamicheau</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>andrekkristal</t>
+          <t>rihanageilani</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ruby.sunshineee</t>
+          <t>lindseysimone.1</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>caseey.hansen</t>
+          <t>averydox</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>noah.waypa</t>
+          <t>sarahgoodmman</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>charitybrann</t>
+          <t>peterzahou_25</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tyler.zitzka</t>
+          <t>viperking599</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kelseydaniel__</t>
+          <t>bayleespencerr</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>abby.perruccio</t>
+          <t>karsyngrace</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>charles.colonnello</t>
+          <t>lacimarieee</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_lexibianchi</t>
+          <t>annika.vanburen</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>its_simon14</t>
+          <t>alexa.rosenfeld</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dannywhite.23</t>
+          <t>masonjwalsh</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rylynnperdue</t>
+          <t>janey.lew</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>chris.moschillo</t>
+          <t>julyza.guerrero</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>crushitjenny</t>
+          <t>jack.son_moore</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>grady_dougherty76</t>
+          <t>torrey_sears</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>j5__davis</t>
+          <t>starskody</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kassiah_g</t>
+          <t>hannahhfader</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sophiacossentino</t>
+          <t>madison_macias1</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mark_friday8</t>
+          <t>cooperribel</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>brooklyntallmann</t>
+          <t>jsplav8</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>chach.dickey</t>
+          <t>landonbaxx</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>_hannahcameron_</t>
+          <t>_bentleycoop_</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>spam_stoner420</t>
+          <t>ally_tito</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jamie.enoch</t>
+          <t>olivia_tylerr</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>rockyreyes_</t>
+          <t>taylornorcross_</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>wol.f3535</t>
+          <t>avapopee_</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cammontelli</t>
+          <t>_juliadennehy</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>remihanrahan</t>
+          <t>andrewtchar</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>caden____c</t>
+          <t>rileyfarnstrom</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>kc_coyle</t>
+          <t>kyle.cetnar</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>shadaysharonpena</t>
+          <t>addicoxx</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sofia.labriola</t>
+          <t>martawrz</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>gabbydantass</t>
+          <t>vukovich.marko</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>willparker_</t>
+          <t>laynecolombo</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>allie.deheras</t>
+          <t>isapizzicarola</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>wildcatgammas</t>
+          <t>noah_on</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>jamesd_35_</t>
+          <t>manupetrunko</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>melayna.moore</t>
+          <t>colton__ford</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>carolinefrutkin</t>
+          <t>elleryrozaschindler</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mackenziecastagna</t>
+          <t>leslietaylor1200</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>diana.go6</t>
+          <t>katieellsworthh</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lukepiper</t>
+          <t>sedonacohenn</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mary_rico16</t>
+          <t>adamdracopoulos</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>willri.ce</t>
+          <t>amber_reeseee</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>tyler.swieca</t>
+          <t>ellaoliva1</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>victoria.chacon4</t>
+          <t>peyton.marie11</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>chaseroberts88</t>
+          <t>robdu.t</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>206mister_</t>
+          <t>malia.lw</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eshwararunn</t>
+          <t>cate.franks</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mariah.brianne</t>
+          <t>amirahhurst_</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>jackfrederiksen32</t>
+          <t>grace_kerbyy</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>max_b_bruner</t>
+          <t>josecarrasco2505</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>minngurl76</t>
+          <t>johnsonkennedyy</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>adam.moeckel</t>
+          <t>brayden_bouchard5</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sara.manhart</t>
+          <t>shayymccue</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>austinjohnson.11</t>
+          <t>aniciatf</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>lillyy.duran</t>
+          <t>madelynamiller</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tay.nic0le</t>
+          <t>jordn_9</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,507 +1248,507 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>eearth0097</t>
+          <t>lindsey.stevensonn</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>avery.smith7</t>
+          <t>kaliakahanamoku</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>stuckn4th</t>
+          <t>aryannaboldea</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kukiopanther</t>
+          <t>_leneyahmitchell</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>lealeilanii</t>
+          <t>anbereroglu</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>milanwilson_</t>
+          <t>gabi.stokes</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>williamj297</t>
+          <t>ellielogan92</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>liam_reed60</t>
+          <t>samgeske</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>viperking599</t>
+          <t>natasha_gillmer</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>lissa.wilson_</t>
+          <t>briana.stanton14</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ashleykkruse</t>
+          <t>courtney.tolbert</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>brynn.smithh</t>
+          <t>ryansisonn</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>reginaa_vaz</t>
+          <t>saoirsedewan</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>tatum_decker13</t>
+          <t>eva_dellorco</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>uofa_india</t>
+          <t>elsielawson05</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>alexm0913</t>
+          <t>ben_elder_</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>jackswalley</t>
+          <t>joshj1678</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>darienk.11</t>
+          <t>theforcebewithyou13</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dott3n</t>
+          <t>kiarra_briggs</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>gabbiemetz</t>
+          <t>lana.yang1</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>tonymoore305</t>
+          <t>lola.cortright</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>allithyren</t>
+          <t>isabellabergdolt</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>steelberg1</t>
+          <t>marmos.art</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>livyy.b</t>
+          <t>mmeredithpollitt</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>jacobgrande_</t>
+          <t>nosugarforsara</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lilywanat</t>
+          <t>inesevehe</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>addie_peak_06</t>
+          <t>jatkinson222</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>lorijanks</t>
+          <t>kylaxgrant</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>r3alprettybri</t>
+          <t>deb_deb_dance</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>katelyngranttt</t>
+          <t>ayana.lovesyou</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>nadiaeferg</t>
+          <t>gracechols</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>aamandafrazier</t>
+          <t>drew.kavan</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>avaredeker</t>
+          <t>katiee.hughess</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ava.nolte</t>
+          <t>theunrealmarlenegarber</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>blaccfromdahills1</t>
+          <t>jen_plaster</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>_bridgetsharp_</t>
+          <t>jennadooley</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ariella_able_fisher</t>
+          <t>isabellarene.1075</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>prime_zachyj</t>
+          <t>ryanhutta</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>akaoxy</t>
+          <t>antonioarellano245</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>harper_reed04</t>
+          <t>ameliadurr</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>embermacfarland</t>
+          <t>allyson.622</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>llillianh</t>
+          <t>lucykesselman411</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>luigi_defilippo_4</t>
+          <t>jayceelm</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>camden.richard</t>
+          <t>madeline_nagel</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>hannahhhroberts</t>
+          <t>heidi.h19</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>noah_paul12</t>
+          <t>kayla_harveyyy</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lorna_pierie</t>
+          <t>mad.robson</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lge_2</t>
+          <t>emma_jaye_t</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>lofnuez</t>
+          <t>_jennamartin_</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>lilymoniquelopez</t>
+          <t>ryleighfitzsimm0ns</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sophiamerry</t>
+          <t>olivia.stendal</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>juliannamehu</t>
+          <t>leahsmall_</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>emilypsarras</t>
+          <t>zoekraszewski</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>lugsports.tucson.az</t>
+          <t>lucy.meyerr</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>h3artl3ss.nyah</t>
+          <t>eliesmith_</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>courtneyywenzel</t>
+          <t>jackson__lee4</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>chaselschwartz</t>
+          <t>linahamashuk</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>_tatelemmer_22</t>
+          <t>brady_powell24</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sarisilva1</t>
+          <t>aaron_apitz</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>elliotjames_2.0</t>
+          <t>ezelinskas_</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ace_portgas0</t>
+          <t>emmacliftonnn</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>aldoocujoo</t>
+          <t>avarydunton</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ashleyyy_carranzaaa</t>
+          <t>gia.nitti</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>unionon6th</t>
+          <t>emleamer</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>_kate_arnold</t>
+          <t>_kaylinvf</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ajdurzy</t>
+          <t>bellakdecicco</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>uniteatucson</t>
+          <t>cole._castro</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>samaraa.spencerr</t>
+          <t>sarahquinnnn_</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>hollen.cerquone</t>
+          <t>fraustobellaa</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>kayleee_austin</t>
+          <t>elise.sandnesss</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>abbybrewsterr</t>
+          <t>swagnew__</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>natashakgrubb</t>
+          <t>sadi.stevens</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>griswold_lisa</t>
+          <t>stellabluberg</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>jadynneuhaus</t>
+          <t>hallehites</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>sophiamichellep_</t>
+          <t>miaafacha</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>nickravoo</t>
+          <t>ellamaelevy_</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>a.don.is.chang</t>
+          <t>bella.richards___</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>bryce_samaniego</t>
+          <t>sahara_wattss</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>_kateblackburn</t>
+          <t>hmwilliamssss</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>josie.church</t>
+          <t>molly.mccarren</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>bahespruhan</t>
+          <t>jakeschumacher__</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>brennachasee</t>
+          <t>diego.herrdrell</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>belllaaa.gonzalezz</t>
+          <t>dellaneylee</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>reese.orrison</t>
+          <t>jafeth.enriquez</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>madelynn.316</t>
+          <t>alexisbkropf</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>jackson.wanderer</t>
+          <t>dylanboyle00</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>jackietilt</t>
+          <t>kylie.frankk</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>brooks.petersxn</t>
+          <t>michellekosasiih</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>theryanjwilkes</t>
+          <t>tate_griff</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>charliegerut</t>
+          <t>jvigs_8</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>athina.bella</t>
+          <t>doeraefifirose</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>averymaeva</t>
+          <t>abby.myersss_</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>cloverwhalen</t>
+          <t>katebursonn</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>jackiestephens694</t>
+          <t>amyyypeterson</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alexvelascoooo</t>
+          <t>taaylordokaa</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>don_korver</t>
+          <t>isabelraleigh</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>izzymdiaz</t>
+          <t>will_smitho1</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>diegocohennn</t>
+          <t>ammarchundaa</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>kim_look19</t>
+          <t>ellagzacheis</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>yesenia.nanez</t>
+          <t>lilytbrownn</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>austinjk001</t>
+          <t>mariaclarampa</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>gabetritschler</t>
+          <t>teema.s</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_emilyeubanks</t>
+          <t>_sam_purnell</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>kaydree.sosky</t>
+          <t>taylerkrebs</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>rydervoutt</t>
+          <t>jaoppenheimer</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>lilychmura</t>
+          <t>lucyleivian</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>izzyrakunas</t>
+          <t>rachel.carlson6</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jkrawitt</t>
+          <t>lila.tallman_</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>alexmarrtinn</t>
+          <t>abraham.torres5</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>declan.delap</t>
+          <t>kate.miklas</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>womenempowerment9001</t>
+          <t>cortesfernandez931</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>rydenrogers</t>
+          <t>smorey123</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>mayatowner</t>
+          <t>scott.hnry</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>dylanlarson19</t>
+          <t>ava.candia</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>snuggybear1969</t>
+          <t>gage_balderson</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>waleed_ks_</t>
+          <t>amiranelson_</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>marygdemian</t>
+          <t>amirtemam12</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sara_mosharrafa</t>
+          <t>mason281</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>meeraj767278</t>
+          <t>garrett_wheeler_22</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>reem.dabs</t>
+          <t>katherine.glow</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>bo.reyn_</t>
+          <t>evatorrey</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>nicktaylor223</t>
+          <t>moweaverr</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>dannelley204</t>
+          <t>csower28</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>kamilaxnavarro</t>
+          <t>isabellawhitker</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>a.vaa</t>
+          <t>thecalvinperkins</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>siouxperdave</t>
+          <t>scarlett.putnam</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>wildcatcondo</t>
+          <t>norapollak_</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>kennaruff__</t>
+          <t>jovanniecg</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jjacedawson</t>
+          <t>ajadi2395</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>dirtyduck25</t>
+          <t>dl.nilsen</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>julia.montgomery18</t>
+          <t>talyaakbrownn</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>lenadevmay</t>
+          <t>flakachixa</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>chloeshaw_07</t>
+          <t>iisabella.vv</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>kieranshay_</t>
+          <t>miles_watson24</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>elsie_estellee</t>
+          <t>ninacone</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>_ciarasorensen</t>
+          <t>risabenzz</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>bree.yerington</t>
+          <t>itscarsoncox</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sydney.wesolowski</t>
+          <t>jhnyte3</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>claregreen.6</t>
+          <t>daytonagibboney</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>braedentaylor_</t>
+          <t>mathewacevedo_</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>angel.delgado00095</t>
+          <t>williamvnguyen</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>cambry.wolynia</t>
+          <t>kristen_vigna</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>nooriesandhu23</t>
+          <t>dy1anweiss_</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>bolovesbacon</t>
+          <t>lyd_warren</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>katherineleticiaa</t>
+          <t>talianunezz</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>chefaaronschropp</t>
+          <t>leah.gm</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>domreisner</t>
+          <t>j.riso80</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>bellaaluciano</t>
+          <t>nemo.g_</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>crack_jack3785</t>
+          <t>gigirendina</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>aalvrez15</t>
+          <t>rachelholbrook_</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>sophie.nobuko</t>
+          <t>brinav18</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>josselyn__rogerss</t>
+          <t>haleybenfatti</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>andrew.albertss</t>
+          <t>romanhinnenkamp.5</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>uarollerhockey</t>
+          <t>tomini.oke</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>booniealferd9</t>
+          <t>charlotte_hauck</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>archeryhunter23692023</t>
+          <t>ellaschmalzz</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>brynleekupp</t>
+          <t>jessicawaxman22</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sergio.sahax</t>
+          <t>augiekrawitt</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>colomabenny</t>
+          <t>kaylee.lashier</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jordyn_sheldon</t>
+          <t>jadedavvis</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>euhhebbwbbbbnbn</t>
+          <t>ryan._.vaughn</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>kane.2181</t>
+          <t>peyton_slaughter55</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>kyle_miller._</t>
+          <t>elysepark17</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>gabbycolemann</t>
+          <t>kananhuffman11</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>noahf2spam</t>
+          <t>tjgundram</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>wellbodynutrition</t>
+          <t>yasminnanayaa</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>sadiemjohnson</t>
+          <t>sophiaalyonss</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>_michaelnoonan_</t>
+          <t>_claudiasofiaa_</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>miggy_grijalva05</t>
+          <t>jjpendergast</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>wendylopez991</t>
+          <t>katelumlung</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>nathandehnert</t>
+          <t>garrett.isaacson</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>kkkryndee</t>
+          <t>kelseemaerose</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>charlie_bingham_43</t>
+          <t>kiersten_carlson_</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>randle.trevion</t>
+          <t>samerasmart_</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>francesca.gickk</t>
+          <t>guignonkyle</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>thechrisandre</t>
+          <t>stasjergensen</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>kalia_hoose</t>
+          <t>addisonrleon</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>averyobay</t>
+          <t>mylee.stoltz</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>taylor.chrsmith</t>
+          <t>kaylasayble</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>maddiebach_</t>
+          <t>gabbyjrussell</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>rowan.boyd</t>
+          <t>jjoshgrewal</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>brooke.w05</t>
+          <t>teokorean</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>lily_11.08.04</t>
+          <t>max_binghamton2</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>sexyt526</t>
+          <t>aradhanamathan</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>mayagenthompson</t>
+          <t>piperkleinn</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>lukestonierr</t>
+          <t>lexiehannen</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ojanjo.silas</t>
+          <t>addison.kozik</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>michaela.heathcott</t>
+          <t>ajleflorejr</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>rusiyaa_</t>
+          <t>gdidodo</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>n0ah_lebeau</t>
+          <t>lena._.lopez</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>rsandlershamblin</t>
+          <t>juju.mayers</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>coopervanderhei</t>
+          <t>zammmyynewt</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>xnamtiddiesx</t>
+          <t>marissa.blakemore</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>alexisrey26102022</t>
+          <t>ava.segura</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>grant.268.3</t>
+          <t>brady.dilworth</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jack_brants</t>
+          <t>owen_m3y3r</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>braxtonhinton</t>
+          <t>jorrr23</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>_oskarsanchez_</t>
+          <t>abby__sievers</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>kate_culler_22</t>
+          <t>briseisrosebell</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>josh_malen26</t>
+          <t>avery.mackay</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>tizzarus</t>
+          <t>savannah.dubois</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>sonjastugart_</t>
+          <t>katelynnkordic</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>andersbaugh_</t>
+          <t>emmalholdsworth</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>young_18_money</t>
+          <t>jordan.milller</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>jjack.jones</t>
+          <t>otisholland_</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>lu_weiss22</t>
+          <t>stoopha_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>abbyy.schultz</t>
+          <t>mayaeldridgeb</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>__timgray__</t>
+          <t>graceadkins2</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>cortezcha</t>
+          <t>bella.ryan1</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>makdean1</t>
+          <t>marleyrsmith</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>miaaa_chin</t>
+          <t>joshj3710x</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>mromero4411</t>
+          <t>chloearnold624</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>rachell.hogan</t>
+          <t>mayaabriseno</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>katrina_rogers56</t>
+          <t>teganrileyy</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>olivia.nachtweih</t>
+          <t>ryanmcgauvran_</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>_mauriciot_</t>
+          <t>chelsea.iles</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>eheriksen</t>
+          <t>avamurrayyyy</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>sofiahein_</t>
+          <t>bennett.hadd</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>nickhabeeb</t>
+          <t>preston.daniels11</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>talia.spector</t>
+          <t>_bella_camberlango</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>char1esf1eming</t>
+          <t>ethansosaa</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>enamcmahon</t>
+          <t>gracewolk</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>jelissamireles</t>
+          <t>carly.b.ross</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>brooke.schoonhen</t>
+          <t>rowanfataa</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>jamison.ra.y</t>
+          <t>abbie.salum</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>annfoster8495</t>
+          <t>envicasanova</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>huffinton64</t>
+          <t>miaagiventer</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>juliakdonahue</t>
+          <t>pmoore331_</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>dezi_nath</t>
+          <t>evyana.sadeh</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>maxeddison</t>
+          <t>k.iara13</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>valeinavalev</t>
+          <t>charleeepstein</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>nathanholguin</t>
+          <t>sydney.arceneaux</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>beardownaffirmations</t>
+          <t>kaniylarobinsonn</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>oliviajferrell</t>
+          <t>kokakayla</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>brixnnasbixch</t>
+          <t>avasgilbertt</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>reyrinen</t>
+          <t>derbygirlalize</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>michaelluna</t>
+          <t>gabbylgebo</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>dang_amy17</t>
+          <t>brysonfausnaught</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>alexa0rtiz</t>
+          <t>evalynnjohnson</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jaywhitney_</t>
+          <t>jacob.cermak</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>sofia.duke</t>
+          <t>hayden_hutmacher</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>cruatua</t>
+          <t>sophiechhapman</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>josh5680x</t>
+          <t>griffin.regan</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>jadedors</t>
+          <t>nataliatasu</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>evan.peralta12</t>
+          <t>kristadonahuee</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>iam_zackkassity</t>
+          <t>dru.neal</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>elenamarieorozco</t>
+          <t>genkii404</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>brendanoneill_</t>
+          <t>isabella.perryy</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ellaburvee</t>
+          <t>bluepries</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>william.wolcott</t>
+          <t>averykklein</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>mor_gannn.alt</t>
+          <t>dom.conway4</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>yasmine.harbin</t>
+          <t>julesrinello</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>eliasathomas</t>
+          <t>_avajmiller</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>zumabeach9</t>
+          <t>_____seanfrazier_____</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>jj_24.x</t>
+          <t>taylor.souzaa</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>emmitt_katz</t>
+          <t>makenahlacy</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>cooper.moore</t>
+          <t>toriisorenson</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>kyleculpepper_</t>
+          <t>mariaxneves</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>madi.bucherr</t>
+          <t>queenjaybell</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>_alexa.garciaa</t>
+          <t>mosey_hulst</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>m.sullivannn</t>
+          <t>sophiacaroli</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>lewancolin</t>
+          <t>kyliecubic</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>_.moonchild._72</t>
+          <t>lolaabrezin</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>alanagalvin</t>
+          <t>allison.west26</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>toni_denholm</t>
+          <t>reillyevenstad</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>thend.isnear</t>
+          <t>luciaacotroneo</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>djsnazzy_23</t>
+          <t>_kendallduke</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sierra.meeks23</t>
+          <t>kenneth_zackary</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>alicja.szuber</t>
+          <t>sanjayy.verma</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>swatisaparia</t>
+          <t>p.northcott32</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>serenityyy.o</t>
+          <t>evannrosee</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>marisa.are</t>
+          <t>avaryvo</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>mykaaajadeee</t>
+          <t>bradenbalch</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>john_stuart__</t>
+          <t>haylie.eastman</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>addisonmclark</t>
+          <t>benny.blanks_</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>sammiduzenack</t>
+          <t>londyn_latoski</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>connort2905</t>
+          <t>smithh_kate</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>bianchiamanda17</t>
+          <t>luke_b_the_og</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>gino.cresci_</t>
+          <t>stephaniemanalo</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>_mckenna28_</t>
+          <t>__avaolson</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>gabe_hawkins1230</t>
+          <t>grace.fort19</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>diego_divn</t>
+          <t>h4nnahbrown</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ariks_18</t>
+          <t>monicavidal._</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>payton_piku1a</t>
+          <t>payton.johle</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ian_.m</t>
+          <t>jax_offalot69</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>lilynewmn</t>
+          <t>alexia_waterman9</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>anna.rrubino</t>
+          <t>cristina311loves</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>canonjuarez</t>
+          <t>shelly.ronan</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>calebkerekes</t>
+          <t>camdencastillo</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>jaz34518</t>
+          <t>alyssaacquaye</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>one_in_rome</t>
+          <t>emmalineghill</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>burhanml_</t>
+          <t>julia_mineo</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>mahdi_shahbazii1</t>
+          <t>emmagud24</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>gianna.desanctis</t>
+          <t>kksheward</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>musinguzi437</t>
+          <t>leahwoodenn</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>evanjochims</t>
+          <t>laurenmitidiero</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>hannah.stoj</t>
+          <t>__andrewrogers__</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>maxstec_13</t>
+          <t>llucy.elliott</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>rosy030174</t>
+          <t>sophiagracevilleneuve</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>lindsayyagerr</t>
+          <t>sofiakdale</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>zarius_wells77</t>
+          <t>juliakelloggg</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>adoree._.dj</t>
+          <t>zaach.romero</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>idkabout4ever</t>
+          <t>tonybrucc</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>mackenzie_hertfelder_</t>
+          <t>madison_rose59</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ryan_mitri</t>
+          <t>angel_reaves3</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>averybeckmann</t>
+          <t>agillson041</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>tylern8</t>
+          <t>rileysamuels_</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>k.mcconnel76</t>
+          <t>ryplidonahuee</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>trippsmazdamiata</t>
+          <t>romancardonaa</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>davidlmarschall</t>
+          <t>layla.backe</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>jjakeschwartz</t>
+          <t>mia_robinson00</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>bradenwellss</t>
+          <t>gabby_tornabene</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ashlynrex08</t>
+          <t>nora.niss88</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>neilkarpal</t>
+          <t>gabbymartino</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>emmalanting</t>
+          <t>teddy.roth06</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>pranavkhosla11</t>
+          <t>lacey.klueber</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>kenna.rorex</t>
+          <t>shelby.mariiee</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>kayleykershner</t>
+          <t>tateabbinante</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>alsaabrami</t>
+          <t>atkinsonjade1</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>mirandalockwood0</t>
+          <t>juliette_dossantos_</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>mackenzie.mathiss</t>
+          <t>emily.mki</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>trennen.heidemann</t>
+          <t>tayheeren</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>michael_.rosen</t>
+          <t>tony1022_22</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>frankiebowenn</t>
+          <t>allison_rose102</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>zkirsh13</t>
+          <t>noahsaywack</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>taelynboocock</t>
+          <t>emma.boydenn</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>childishchasino</t>
+          <t>sahith_98</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>just1.nuels</t>
+          <t>teyafalino</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>liammattingly__</t>
+          <t>calvin_curtiss</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ian_and_holly_</t>
+          <t>sam.vonruden</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>graceecoyne</t>
+          <t>jacktbrown28</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>jacksonwerner2</t>
+          <t>avery_omens</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>kressstein</t>
+          <t>olivializak</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>adelyne.113</t>
+          <t>rileehetzler</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>tylernjones13</t>
+          <t>ivan.beetoe</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>eelishajane</t>
+          <t>grace.claytonnn</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>darrenmieskoski</t>
+          <t>carly.dulitsky</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>dicescotty</t>
+          <t>payton_anderson12</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>destanyj101</t>
+          <t>fugazzitaylor</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>travisrich_2023</t>
+          <t>evaaboyce</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>james_r_fr</t>
+          <t>chloeb3nn3tt</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>suzyspartan</t>
+          <t>sydneykatter</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>entrepreneursmilton</t>
+          <t>_will.jenkins</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>lucyhomerr</t>
+          <t>rorygallowayy</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>cameron_rosado</t>
+          <t>mandarin_wallace</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>jackmartindale12</t>
+          <t>grace.martret</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>landokidd77</t>
+          <t>marlee.raymond</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>camden_noel_23</t>
+          <t>nathan.madanii</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>hannahrjordan</t>
+          <t>ezadnikk</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>camlogan1</t>
+          <t>isabella.smitthh</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>thunder.fatdog</t>
+          <t>_myngo_</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ava_paaak</t>
+          <t>ofcitsanti</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>nikki_shughart</t>
+          <t>gabbydantass</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>jenna_esser_</t>
+          <t>cogniiito</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ella__ollenburg</t>
+          <t>_alexandraperrucci</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>eliserichmond</t>
+          <t>griffin.boucher</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>bri_reilly91</t>
+          <t>eschmelzer9</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>avajadeeee</t>
+          <t>kaminovotny</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>jay.laszlo</t>
+          <t>nacer2017</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ashleigh.duggan</t>
+          <t>katie_theissen</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>genesis_perlitaa</t>
+          <t>mckenna.loweee</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>kassidifs</t>
+          <t>mckinseyadams</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>_oliviaelahee</t>
+          <t>shannonmichelle973</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>bellavillalon</t>
+          <t>peytondarlingg</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>sarah.charvel</t>
+          <t>nancy_caroli</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>august.h2o</t>
+          <t>patriciapoprawa</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>austinbelvoir</t>
+          <t>siobhanlia</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>thmosk</t>
+          <t>livdiekmann</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>averymurrphy</t>
+          <t>laura._.brockmann</t>
         </is>
       </c>
       <c r="B450" t="b">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>micahclyde_</t>
+          <t>stella.marie5</t>
         </is>
       </c>
       <c r="B451" t="b">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>leslie.12377</t>
+          <t>carolinepvogel</t>
         </is>
       </c>
       <c r="B452" t="b">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ryanevanss24</t>
+          <t>livjones_711</t>
         </is>
       </c>
       <c r="B453" t="b">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>alexandrogil420</t>
+          <t>emmaamendezz</t>
         </is>
       </c>
       <c r="B454" t="b">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>silas.venberg</t>
+          <t>luciaamattioli</t>
         </is>
       </c>
       <c r="B455" t="b">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>delaneymoennn</t>
+          <t>reaganpeckk</t>
         </is>
       </c>
       <c r="B456" t="b">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>sami__peterson</t>
+          <t>jeremiah_reyes24</t>
         </is>
       </c>
       <c r="B457" t="b">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>avafuchss</t>
+          <t>kiki_katwan</t>
         </is>
       </c>
       <c r="B458" t="b">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>jemmaburstein</t>
+          <t>haley.lomonaco</t>
         </is>
       </c>
       <c r="B459" t="b">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>coopcudi</t>
+          <t>shellyzeunert</t>
         </is>
       </c>
       <c r="B460" t="b">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>emilygraceduenas</t>
+          <t>brooklynclaytonnn</t>
         </is>
       </c>
       <c r="B461" t="b">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>alyssamaypaul21</t>
+          <t>cadengrobaski9</t>
         </is>
       </c>
       <c r="B462" t="b">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>lorenzo_lahijani</t>
+          <t>nalahnaa</t>
         </is>
       </c>
       <c r="B463" t="b">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>_.camville</t>
+          <t>jake_whalen7</t>
         </is>
       </c>
       <c r="B464" t="b">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>sophiaspataroo</t>
+          <t>katelynmorel</t>
         </is>
       </c>
       <c r="B465" t="b">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>yolomavv_</t>
+          <t>travis__clemens</t>
         </is>
       </c>
       <c r="B466" t="b">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>tim_bickel15</t>
+          <t>nate.b46</t>
         </is>
       </c>
       <c r="B467" t="b">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>tonettaclay</t>
+          <t>zoe.portewig</t>
         </is>
       </c>
       <c r="B468" t="b">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>charlotte.erick</t>
+          <t>irenegarbis</t>
         </is>
       </c>
       <c r="B469" t="b">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>maddie.watsn</t>
+          <t>brielle.defreitas</t>
         </is>
       </c>
       <c r="B470" t="b">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>adam__fernandez</t>
+          <t>jack._tinsley</t>
         </is>
       </c>
       <c r="B471" t="b">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>michelle.gawlak</t>
+          <t>reagan.hellman</t>
         </is>
       </c>
       <c r="B472" t="b">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>sami.sotelo</t>
+          <t>reiah.j</t>
         </is>
       </c>
       <c r="B473" t="b">
@@ -5168,10 +5168,230 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>will.vanya</t>
+          <t>userjarebear209</t>
         </is>
       </c>
       <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>hopebangs</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>kyleschmitz2</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>alan_cibrian_</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>shamsul_sust</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>kinerkaylin</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>scool06</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>prestonasummers</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>daniellasclark</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>mia_gohel</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>evadpalermo</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>colinfick01</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>ryandehann</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>brieanna.walsh</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>teriana.jones</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>macey.cuomo</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>dash_rich</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>brooke.hendi</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>evankaterouse</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>sophialucci_</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>trudycomiskeyy</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>anavcolmen</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>_alyssarusso</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
         <v>0</v>
       </c>
     </row>
